--- a/data/trans_dic/P55$familiar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,28; 75,87</t>
+          <t>11,34; 74,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 75,3</t>
+          <t>16,78; 75,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,51; 82,35</t>
+          <t>27,41; 82,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,61; 76,76</t>
+          <t>49,16; 78,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,19</t>
+          <t>0,0; 53,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,33; 73,53</t>
+          <t>36,32; 70,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,29; 67,83</t>
+          <t>24,79; 68,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,57; 88,34</t>
+          <t>69,38; 89,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,79; 58,82</t>
+          <t>10,39; 54,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,58; 66,23</t>
+          <t>35,31; 66,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,05; 67,67</t>
+          <t>31,0; 68,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>63,37; 81,11</t>
+          <t>64,39; 81,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,34; 55,56</t>
+          <t>10,72; 56,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,57</t>
+          <t>0,0; 20,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 48,7</t>
+          <t>6,59; 52,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,93; 78,16</t>
+          <t>32,56; 78,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 62,55</t>
+          <t>20,46; 61,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 32,02</t>
+          <t>7,68; 33,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,89; 47,9</t>
+          <t>13,87; 47,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,96; 73,06</t>
+          <t>52,31; 71,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,08; 52,53</t>
+          <t>19,51; 50,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,03; 22,9</t>
+          <t>5,47; 22,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,38; 42,59</t>
+          <t>15,22; 41,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,76; 70,03</t>
+          <t>51,3; 70,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,26</t>
+          <t>0,0; 46,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,03</t>
+          <t>0,0; 31,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 52,31</t>
+          <t>10,27; 52,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,82; 67,28</t>
+          <t>35,46; 66,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 49,9</t>
+          <t>18,35; 48,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,43; 56,07</t>
+          <t>17,5; 55,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,26</t>
+          <t>0,0; 43,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,93; 66,24</t>
+          <t>44,31; 65,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,03; 44,39</t>
+          <t>18,07; 45,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,77; 42,41</t>
+          <t>13,2; 41,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 38,06</t>
+          <t>8,44; 36,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,28; 62,65</t>
+          <t>44,8; 62,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,17</t>
+          <t>0,0; 27,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,76; 72,43</t>
+          <t>26,72; 72,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 58,21</t>
+          <t>10,67; 52,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,59; 70,12</t>
+          <t>33,07; 71,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 36,76</t>
+          <t>6,98; 37,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,92; 59,59</t>
+          <t>27,89; 57,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,64; 60,9</t>
+          <t>19,9; 60,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,36; 71,21</t>
+          <t>51,22; 70,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 30,58</t>
+          <t>6,98; 29,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,35; 59,2</t>
+          <t>30,68; 57,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,63; 52,85</t>
+          <t>21,49; 52,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,06; 67,76</t>
+          <t>48,81; 66,9</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,71</t>
+          <t>0,0; 54,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,52; 74,47</t>
+          <t>11,4; 74,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 83,49</t>
+          <t>15,91; 83,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,89; 56,58</t>
+          <t>12,05; 56,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 54,81</t>
+          <t>7,22; 53,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 38,51</t>
+          <t>8,2; 42,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 39,47</t>
+          <t>7,64; 41,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,87; 70,11</t>
+          <t>40,18; 68,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,11; 44,2</t>
+          <t>9,0; 44,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,15; 44,03</t>
+          <t>12,45; 41,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,4; 43,65</t>
+          <t>12,78; 45,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,76; 59,57</t>
+          <t>34,88; 58,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,28; 42,01</t>
+          <t>5,26; 41,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 41,26</t>
+          <t>5,83; 41,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,22; 58,1</t>
+          <t>16,35; 56,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,03; 57,21</t>
+          <t>30,66; 56,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 53,78</t>
+          <t>17,37; 56,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,22; 50,04</t>
+          <t>9,97; 50,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,34</t>
+          <t>0,0; 30,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,76; 67,1</t>
+          <t>44,84; 66,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 44,2</t>
+          <t>16,89; 44,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,14; 37,93</t>
+          <t>13,33; 40,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,47; 33,56</t>
+          <t>8,44; 32,97</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>43,28; 60,44</t>
+          <t>41,97; 57,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,85</t>
+          <t>0,0; 21,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,56; 35,33</t>
+          <t>6,74; 37,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,08; 37,13</t>
+          <t>6,93; 39,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>34,67; 70,09</t>
+          <t>33,39; 69,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 32,47</t>
+          <t>8,08; 33,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,13; 43,06</t>
+          <t>17,48; 44,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,72; 38,34</t>
+          <t>12,32; 37,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,71; 59,38</t>
+          <t>39,2; 59,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,75; 24,35</t>
+          <t>5,65; 24,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,04; 34,4</t>
+          <t>15,46; 35,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,29; 32,74</t>
+          <t>14,28; 33,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>40,93; 58,58</t>
+          <t>41,67; 59,66</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,57; 37,88</t>
+          <t>9,22; 37,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,01; 51,73</t>
+          <t>10,53; 51,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,87; 51,07</t>
+          <t>14,44; 50,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,36; 64,24</t>
+          <t>25,72; 63,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,04; 34,13</t>
+          <t>9,86; 35,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,03; 46,05</t>
+          <t>19,15; 46,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,84; 46,95</t>
+          <t>19,04; 47,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,58; 63,45</t>
+          <t>43,62; 63,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,78; 31,29</t>
+          <t>12,44; 32,58</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,52; 42,96</t>
+          <t>19,78; 42,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20,56; 44,63</t>
+          <t>21,35; 45,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>43,23; 59,78</t>
+          <t>43,64; 60,67</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,68; 27,91</t>
+          <t>12,96; 26,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,22; 31,13</t>
+          <t>16,57; 30,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,9; 36,87</t>
+          <t>21,51; 37,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>44,48; 57,16</t>
+          <t>45,24; 57,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,9; 31,89</t>
+          <t>19,56; 31,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,4; 37,71</t>
+          <t>26,68; 37,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>22,32; 34,57</t>
+          <t>21,88; 34,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>54,71; 62,17</t>
+          <t>55,09; 62,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,27; 28,5</t>
+          <t>19,01; 27,96</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>24,25; 33,51</t>
+          <t>24,36; 33,38</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>23,35; 33,03</t>
+          <t>24,15; 33,68</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>52,51; 59,11</t>
+          <t>52,86; 59,54</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar no conviviente cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3420</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5022</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4973</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17169</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15593</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11337</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26536</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20615</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16310</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43705</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>983; 6451</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1977; 8871</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2466; 7407</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13289; 21310</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5465</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10328; 20181</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6140; 16990</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22825; 29436</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1965; 10346</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14200; 26941</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10468; 23196</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38590; 48670</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2597</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8582</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8958</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7490</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10490</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34252</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13582</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8492</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13087</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>42834</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1745; 9278</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4732</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>839; 6740</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5008; 12003</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4646; 13894</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3251; 14002</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5041; 17333</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>28771; 39543</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7606; 19710</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3603; 15141</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7471; 20563</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36106; 49442</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1821</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3930</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13146</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11795</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9404</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2467</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24775</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13616</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10452</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6397</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37921</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4799</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4513</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1514; 7671</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9106; 16987</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6560; 17351</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4635; 14741</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7524</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19731; 29110</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8341; 20782</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5396; 16779</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2706; 11677</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31459; 43798</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9630</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4013</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8527</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6294</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16456</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11618</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22159</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7193</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>26086</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15631</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>30685</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3736</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5147; 13981</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1490; 7392</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5471; 11784</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2227; 11863</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11008; 22678</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5846; 17834</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18400; 25377</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3165; 13351</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>18016; 33571</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9314; 22934</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25606; 35098</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1678</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3292</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2427</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2441</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4119</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5310</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5134</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8957</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5797</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8602</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7561</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>11398</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4695</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1023; 6681</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>785; 4120</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>963; 4506</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1127; 8342</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2072; 10648</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1846; 10021</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6483; 11091</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2182; 10821</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4263; 14148</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3719; 13322</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8416; 14148</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3706</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3201</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5116</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10524</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9434</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6289</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2191</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17712</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13139</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9489</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7307</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>28236</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>945; 7501</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1055; 7483</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2442; 8509</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7417; 13636</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4857; 15797</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2122; 10669</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7206</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14154; 20845</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7759; 20552</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5248; 15882</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3236; 12637</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>23401; 32293</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5117</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4906</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12158</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6696</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13909</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>13344</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>26113</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>7677</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>19026</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>18250</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>38271</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4066</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1977; 11047</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1831; 10381</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>7760; 16229</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3165; 12987</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8628; 21750</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6941; 21107</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20945; 31788</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3271; 13961</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>12163; 28103</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>11819; 27507</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>31953; 45748</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5644</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>7419</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>7545</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>9659</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>14785</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>18184</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>31706</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>16907</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>20429</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>25603</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>39252</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2996; 12330</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2193; 10782</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3572; 12506</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>4372; 10802</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>4691; 16809</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>8981; 21674</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>10602; 26213</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>25629; 37324</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>9957; 26086</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>13393; 28910</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>17167; 36180</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>33058; 45961</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>24378</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>33956</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>35382</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>80093</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>59055</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>89235</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>74763</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>192209</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>83433</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>123190</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>110145</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>272302</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>16410; 33428</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>24227; 45248</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>26123; 45209</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>71058; 90192</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>45180; 73115</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>74576; 105523</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>58493; 92435</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>180821; 205271</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>67956; 99972</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>103687; 142104</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>93890; 130956</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>256524; 288971</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>